--- a/Kentucky_Basketball_Players.xlsx
+++ b/Kentucky_Basketball_Players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomassimmons/Coding/DataScience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991AEF04-FFC3-7B46-8E30-002A23CDA904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3768E175-03DF-9642-AFD5-FA94020B589B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17220" xr2:uid="{DD59DBE5-19F9-2847-AEBB-2FE8A78E1D3A}"/>
   </bookViews>
@@ -186,10 +186,10 @@
     <t>Lafayette, LA</t>
   </si>
   <si>
-    <t>Point Guard</t>
-  </si>
-  <si>
     <t>Georgetown, KY</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18670FE9-DC28-2249-8B6E-A6F7AD7C95DC}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="218" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -709,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>36</v>
@@ -778,7 +778,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>43</v>
@@ -870,10 +870,10 @@
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>34</v>
@@ -893,7 +893,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>39</v>
@@ -908,7 +908,7 @@
         <v>225</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Kentucky_Basketball_Players.xlsx
+++ b/Kentucky_Basketball_Players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomassimmons/Coding/DataScience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3768E175-03DF-9642-AFD5-FA94020B589B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7E53E4-296E-874A-92B7-E81BAE497878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17220" xr2:uid="{DD59DBE5-19F9-2847-AEBB-2FE8A78E1D3A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -165,9 +165,6 @@
     <t>6'11"</t>
   </si>
   <si>
-    <t>Serbia, Europe</t>
-  </si>
-  <si>
     <t>Power Forward</t>
   </si>
   <si>
@@ -190,6 +187,39 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Previous School</t>
+  </si>
+  <si>
+    <t>Miami OH</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Jayden Quaintance</t>
+  </si>
+  <si>
+    <t>Arizona State</t>
+  </si>
+  <si>
+    <t>6'9"</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Pitt</t>
+  </si>
+  <si>
+    <t>Tulane</t>
   </si>
 </sst>
 </file>
@@ -575,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18670FE9-DC28-2249-8B6E-A6F7AD7C95DC}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,9 +617,11 @@
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,8 +643,14 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -634,8 +672,11 @@
       <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -657,8 +698,11 @@
       <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -680,8 +724,11 @@
       <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -703,13 +750,16 @@
       <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>36</v>
@@ -727,7 +777,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -749,8 +799,11 @@
       <c r="G7" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -772,16 +825,19 @@
       <c r="G8" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>35</v>
@@ -793,10 +849,10 @@
         <v>35</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -810,16 +866,19 @@
         <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2">
         <v>215</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -833,16 +892,19 @@
         <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="2">
         <v>175</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -862,15 +924,18 @@
         <v>190</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>23</v>
@@ -888,12 +953,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>39</v>
@@ -908,7 +973,21 @@
         <v>225</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Kentucky_Basketball_Players.xlsx
+++ b/Kentucky_Basketball_Players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomassimmons/Coding/DataScience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7E53E4-296E-874A-92B7-E81BAE497878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EE405D-B56F-9244-A156-B1E281CF5C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17220" xr2:uid="{DD59DBE5-19F9-2847-AEBB-2FE8A78E1D3A}"/>
   </bookViews>
@@ -608,7 +608,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -846,7 +846,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>54</v>

--- a/Kentucky_Basketball_Players.xlsx
+++ b/Kentucky_Basketball_Players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomassimmons/Coding/DataScience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EE405D-B56F-9244-A156-B1E281CF5C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0276F4-4BE9-4646-AB9A-6336BD6349B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17220" xr2:uid="{DD59DBE5-19F9-2847-AEBB-2FE8A78E1D3A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -608,7 +608,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,7 +646,7 @@
       <c r="H1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -675,6 +675,7 @@
       <c r="H2" s="2">
         <v>5</v>
       </c>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -701,6 +702,7 @@
       <c r="H3" s="2">
         <v>9</v>
       </c>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -727,6 +729,7 @@
       <c r="H4" s="2">
         <v>10</v>
       </c>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -753,6 +756,7 @@
       <c r="H5" s="2">
         <v>0</v>
       </c>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -776,6 +780,7 @@
       <c r="G6" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -851,6 +856,7 @@
       <c r="G9" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -952,6 +958,7 @@
       <c r="G13" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -975,18 +982,31 @@
       <c r="G14" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>55</v>
       </c>
+      <c r="B15" s="2">
+        <v>9.4</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I15" t="s">
+      <c r="F15" s="2">
+        <v>225</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>56</v>
       </c>
     </row>

--- a/Kentucky_Basketball_Players.xlsx
+++ b/Kentucky_Basketball_Players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomassimmons/Coding/DataScience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0276F4-4BE9-4646-AB9A-6336BD6349B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98FEE7E-EC77-6A42-872F-7E32EBC234BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17220" xr2:uid="{DD59DBE5-19F9-2847-AEBB-2FE8A78E1D3A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>Tulane</t>
+  </si>
+  <si>
+    <t>Assists</t>
+  </si>
+  <si>
+    <t>Rebounds</t>
   </si>
 </sst>
 </file>
@@ -605,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18670FE9-DC28-2249-8B6E-A6F7AD7C95DC}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -621,7 +627,7 @@
     <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,8 +655,14 @@
       <c r="I1" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -677,7 +689,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -704,7 +716,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -731,7 +743,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -758,7 +770,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -782,7 +794,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -808,7 +820,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -834,7 +846,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -858,7 +870,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -884,7 +896,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -910,7 +922,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -936,7 +948,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -960,7 +972,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -984,7 +996,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>55</v>
       </c>

--- a/Kentucky_Basketball_Players.xlsx
+++ b/Kentucky_Basketball_Players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomassimmons/Coding/DataScience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98FEE7E-EC77-6A42-872F-7E32EBC234BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D460A4B-F6FF-C84E-BC80-F0B9D7A67108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17220" xr2:uid="{DD59DBE5-19F9-2847-AEBB-2FE8A78E1D3A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -147,9 +147,6 @@
     <t>N.A.</t>
   </si>
   <si>
-    <t>Small Forward</t>
-  </si>
-  <si>
     <t>7'1"</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>6'11"</t>
   </si>
   <si>
-    <t>Power Forward</t>
-  </si>
-  <si>
     <t>6'7"</t>
   </si>
   <si>
@@ -222,10 +216,10 @@
     <t>Tulane</t>
   </si>
   <si>
-    <t>Assists</t>
-  </si>
-  <si>
-    <t>Rebounds</t>
+    <t>Assists Per Game (APG)</t>
+  </si>
+  <si>
+    <t>Rebounds Per Game (RPG)</t>
   </si>
 </sst>
 </file>
@@ -613,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18670FE9-DC28-2249-8B6E-A6F7AD7C95DC}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,6 +619,8 @@
     <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="2"/>
     <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -650,16 +646,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -688,6 +684,8 @@
         <v>5</v>
       </c>
       <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -715,6 +713,8 @@
         <v>9</v>
       </c>
       <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -742,6 +742,12 @@
         <v>10</v>
       </c>
       <c r="I4" s="2"/>
+      <c r="J4" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -769,16 +775,22 @@
         <v>0</v>
       </c>
       <c r="I5" s="2"/>
+      <c r="J5" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>34</v>
@@ -793,6 +805,8 @@
         <v>33</v>
       </c>
       <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -802,23 +816,25 @@
         <v>6.5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2">
         <v>215</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -840,35 +856,39 @@
         <v>190</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -884,17 +904,19 @@
         <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2">
         <v>215</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -910,17 +932,19 @@
         <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2">
         <v>175</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -942,18 +966,20 @@
         <v>190</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>60</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>23</v>
@@ -968,37 +994,41 @@
         <v>175</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2">
         <v>225</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2">
         <v>9.4</v>
@@ -1010,7 +1040,7 @@
         <v>22</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" s="2">
         <v>225</v>
@@ -1019,8 +1049,10 @@
         <v>20</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kentucky_Basketball_Players.xlsx
+++ b/Kentucky_Basketball_Players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomassimmons/Coding/DataScience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D460A4B-F6FF-C84E-BC80-F0B9D7A67108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809FEBEC-5354-354B-8411-F2BC520C0D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17220" xr2:uid="{DD59DBE5-19F9-2847-AEBB-2FE8A78E1D3A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18670FE9-DC28-2249-8B6E-A6F7AD7C95DC}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,9 +786,7 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
@@ -868,9 +866,7 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
@@ -978,9 +974,7 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
@@ -1004,9 +998,7 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>38</v>
       </c>

--- a/Kentucky_Basketball_Players.xlsx
+++ b/Kentucky_Basketball_Players.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomassimmons/Coding/DataScience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809FEBEC-5354-354B-8411-F2BC520C0D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C7D15C-24DD-6243-9E26-F985885B04D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17220" xr2:uid="{DD59DBE5-19F9-2847-AEBB-2FE8A78E1D3A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Roster" sheetId="1" r:id="rId1"/>
-    <sheet name="Alums" sheetId="2" r:id="rId2"/>
+    <sheet name="2025-2026" sheetId="1" r:id="rId1"/>
+    <sheet name="2024-2025" sheetId="3" r:id="rId2"/>
+    <sheet name="Alums" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -608,7 +609,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1052,6 +1053,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB7D21B-1438-B344-A83C-DBEB0A1D3866}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6FF011-2E8B-9643-86F2-DC29B97905C4}">
   <dimension ref="A1"/>
   <sheetViews>
